--- a/results/many_equal/std_sort.xlsx
+++ b/results/many_equal/std_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A2002127-1999-4A3A-90D4-882C90AB81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EE77A6-DD3F-416B-A70E-16B438182AB3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A2002127-1999-4A3A-90D4-882C90AB81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE897D33-7F7C-4B68-A175-5A4B21091F8B}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="1275" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="std_sort" sheetId="1" r:id="rId1"/>
@@ -587,19 +587,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -625,19 +619,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -668,19 +656,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -790,10 +772,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -821,10 +804,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -844,9 +828,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -860,8 +844,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -890,9 +875,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -907,10 +892,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -938,10 +924,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -971,8 +958,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1007,28 +995,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1091,33 +1068,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1125,34 +1104,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1161,8 +1132,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1181,6 +1153,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1189,35 +1169,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1229,29 +1219,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1269,18 +1261,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1290,20 +1285,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1317,44 +1312,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
+  </cs:dropLine>
+  <cs:errorBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1364,16 +1333,16 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
+  </cs:errorBar>
+  <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1381,139 +1350,158 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
       <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1529,6 +1517,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1537,8 +1526,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1548,7 +1538,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1556,9 +1546,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1569,8 +1559,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1582,6 +1573,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1625,6 +1622,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/results/many_equal/std_sort.xlsx
+++ b/results/many_equal/std_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A2002127-1999-4A3A-90D4-882C90AB81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE897D33-7F7C-4B68-A175-5A4B21091F8B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{30F0A4BC-04B4-49EF-8116-73EA894EFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A9D2286-DA08-48B5-974C-EA9CB64B1C2D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19725" yWindow="1935" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="std_sort" sheetId="1" r:id="rId1"/>
@@ -710,31 +710,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>5620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9310</c:v>
+                  <c:v>10970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20610</c:v>
+                  <c:v>21310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40760</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95110</c:v>
+                  <c:v>83760</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185670</c:v>
+                  <c:v>164110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412360</c:v>
+                  <c:v>339750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>825810</c:v>
+                  <c:v>691640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1829910</c:v>
+                  <c:v>1415520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +742,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2175-48AA-9082-32D5B3862419}"/>
+              <c16:uniqueId val="{00000000-ADDD-4C4F-8D79-8558381BD8EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,11 +755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2006031055"/>
-        <c:axId val="2006033135"/>
+        <c:axId val="602510848"/>
+        <c:axId val="602512512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2006031055"/>
+        <c:axId val="602510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +857,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2006033135"/>
+        <c:crossAx val="602512512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2006033135"/>
+        <c:axId val="602512512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2006031055"/>
+        <c:crossAx val="602510848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1588,22 +1588,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>642936</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144DDFFA-A024-E628-E0C1-8A68FE2E2902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B4ACF2-D163-74C5-69B5-EF164A3BD74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,10 +1622,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1927,9 +1923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -1965,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4900</v>
+        <v>5620</v>
       </c>
       <c r="C2">
-        <v>9310</v>
+        <v>10970</v>
       </c>
       <c r="D2">
-        <v>20610</v>
+        <v>21310</v>
       </c>
       <c r="E2">
-        <v>40760</v>
+        <v>42120</v>
       </c>
       <c r="F2">
-        <v>95110</v>
+        <v>83760</v>
       </c>
       <c r="G2">
-        <v>185670</v>
+        <v>164110</v>
       </c>
       <c r="H2">
-        <v>412360</v>
+        <v>339750</v>
       </c>
       <c r="I2">
-        <v>825810</v>
+        <v>691640</v>
       </c>
       <c r="J2">
-        <v>1829910</v>
+        <v>1415520</v>
       </c>
     </row>
   </sheetData>
